--- a/src/application.xlsx
+++ b/src/application.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$32</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>参加申込書</t>
     <rPh sb="0" eb="2">
@@ -404,6 +404,50 @@
     </rPh>
     <rPh sb="53" eb="55">
       <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不要</t>
+    <rPh sb="0" eb="2">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>領収証</t>
+    <rPh sb="0" eb="3">
+      <t>リョウシュウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>□</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>領収証の必要/不要を忘れずに選択してください。</t>
+    <rPh sb="0" eb="3">
+      <t>リョウシュウショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ワス</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センタク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -596,7 +640,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -633,18 +677,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -663,11 +701,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -678,35 +740,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1174,10 +1221,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1200,17 +1247,17 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
@@ -1218,495 +1265,513 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="L5" t="s">
-        <v>30</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
+        <v>1</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
       <c r="L6" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
+        <v>2</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
       <c r="L7" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="L8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="G9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I11" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="19" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="10" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="29"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="10"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="29"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="17">
-        <v>1</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="29"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B16" s="15">
         <v>2</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="29"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16" s="11"/>
-      <c r="B16" s="17">
-        <v>3</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="29"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="11"/>
-      <c r="B17" s="17">
-        <v>4</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="29"/>
+      <c r="B17" s="15">
+        <v>3</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="11"/>
-      <c r="B18" s="17">
-        <v>5</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="29"/>
+      <c r="B18" s="15">
+        <v>4</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="11"/>
-      <c r="B19" s="17">
-        <v>6</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="29"/>
+      <c r="B19" s="15">
+        <v>5</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="11"/>
-      <c r="B20" s="17">
-        <v>7</v>
-      </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="29"/>
+      <c r="B20" s="15">
+        <v>6</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="11"/>
-      <c r="B21" s="17">
+      <c r="B21" s="15">
+        <v>7</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" s="11"/>
+      <c r="B22" s="15">
         <v>8</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="29"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" s="30" t="s">
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B23" s="15">
         <v>9</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="29"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="30"/>
-      <c r="B23" s="17">
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" s="29"/>
+      <c r="B24" s="15">
         <v>10</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="29"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="11" t="s">
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="18"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="33"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="29"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="16"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="33"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="29"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="23"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="34"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="36"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="23"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="25"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="27"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="20" t="s">
+      <c r="F29" s="4"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B30" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27" t="str">
-        <f>IF(D9="■","学生",IF(B9="□","",IF(H8="■","非会員",IF(B8="■","正会員",IF(F8="■","正会員","")))))</f>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28" t="str">
+        <f>IF(D10="■","学生",IF(B10="□","",IF(H9="■","非会員",IF(B9="■","正会員",IF(F9="■","正会員","")))))</f>
         <v/>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="8" t="s">
+      <c r="E30" s="28"/>
+      <c r="F30" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="21" t="str">
-        <f>IF(D29="正会員",4000,IF(D29="非会員",5000,IF(D29="学生",2000,"")))</f>
+      <c r="G30" s="19" t="str">
+        <f>IF(D30="正会員",4000,IF(D30="非会員",5000,IF(D30="学生",2000,"")))</f>
         <v/>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H30" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="10"/>
-      <c r="B30" s="32" t="s">
+      <c r="I30" s="9"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" s="10"/>
+      <c r="B31" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32" t="str">
-        <f>IF(D28="■","参加しない",IF(B28="□","",IF(D9="■","学生",IF(H8="■","非会員",IF(B8="■","正会員",IF(F8="■","正会員",""))))))</f>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21" t="str">
+        <f>IF(D29="■","参加しない",IF(B29="□","",IF(D10="■","学生",IF(H9="■","非会員",IF(B9="■","正会員",IF(F9="■","正会員",""))))))</f>
         <v/>
       </c>
-      <c r="E30" s="32"/>
-      <c r="F30" s="14" t="s">
+      <c r="E31" s="21"/>
+      <c r="F31" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G30" s="13" t="str">
-        <f>IF(D30="正会員",5000,IF(D30="非会員",5000,IF(D30="学生",3000,IF(D30="参加しない",0,""))))</f>
+      <c r="G31" s="12" t="str">
+        <f>IF(D31="正会員",5000,IF(D31="非会員",5000,IF(D31="学生",3000,IF(D31="参加しない",0,""))))</f>
         <v/>
       </c>
-      <c r="H30" s="14" t="s">
+      <c r="H31" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I30" s="18"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="12"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32" t="s">
+      <c r="I31" s="16"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" s="11"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="13">
-        <f>SUM(G29:G30)</f>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="14">
+        <f>SUM(G30:G31)</f>
         <v>0</v>
       </c>
-      <c r="H31" s="14" t="s">
+      <c r="H32" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I31" s="15"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D32" s="22"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="I32" s="16"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="37"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C9:E9"/>
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="B12:I13"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="B13:I14"/>
+    <mergeCell ref="D31:E31"/>
     <mergeCell ref="C15:I15"/>
     <mergeCell ref="C16:I16"/>
     <mergeCell ref="C17:I17"/>
     <mergeCell ref="C18:I18"/>
     <mergeCell ref="C19:I19"/>
     <mergeCell ref="C20:I20"/>
-    <mergeCell ref="A25:I27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
     <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="A26:I28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B10 F8 F10 D9:D10 H10 H8 B28 D28">
-      <formula1>$L$6:$L$7</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B11 B33 D33 D29 B29 H9 H11 D10:D11 F11 F9">
+      <formula1>$L$7:$L$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
